--- a/Desafios/desafio13/d13.xlsx
+++ b/Desafios/desafio13/d13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="14355" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="14355" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="desafio-13-01" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>A</t>
   </si>
@@ -55,6 +55,93 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Nomes</t>
+  </si>
+  <si>
+    <t>Filmes</t>
+  </si>
+  <si>
+    <t>Mulheres</t>
+  </si>
+  <si>
+    <t>Homens</t>
+  </si>
+  <si>
+    <t>Ana Maria Santos</t>
+  </si>
+  <si>
+    <t>Beatriz Souza</t>
+  </si>
+  <si>
+    <t>Claudia Melo</t>
+  </si>
+  <si>
+    <t>Bruno Mendonça</t>
+  </si>
+  <si>
+    <t>Daniel Lourenço</t>
+  </si>
+  <si>
+    <t>Fabiano Mota</t>
+  </si>
+  <si>
+    <t>Alien</t>
+  </si>
+  <si>
+    <t>Hulk</t>
+  </si>
+  <si>
+    <t>Oblivion</t>
+  </si>
+  <si>
+    <t>Intocáveis</t>
+  </si>
+  <si>
+    <t>Wll-E</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Rambo</t>
+  </si>
+  <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>Mtrix</t>
+  </si>
+  <si>
+    <t>Amnésia</t>
+  </si>
+  <si>
+    <t>Oldboy</t>
+  </si>
+  <si>
+    <t>Taxi Driver</t>
+  </si>
+  <si>
+    <t>Vingadores</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Dangal</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Big Heroe</t>
+  </si>
+  <si>
+    <t>Gladiador</t>
   </si>
 </sst>
 </file>
@@ -86,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -364,11 +451,250 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -379,64 +705,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -751,56 +1131,56 @@
       <c r="B1" s="3">
         <v>2</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="12">
         <v>3</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>5</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>6</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9">
+      <c r="C2" s="13"/>
+      <c r="D2" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A3" s="10">
+      <c r="A3" s="14">
         <v>8</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A4" s="10">
+      <c r="A4" s="14">
         <v>10</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="13">
         <v>11</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9">
+      <c r="C4" s="13"/>
+      <c r="D4" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12">
+      <c r="A5" s="15"/>
+      <c r="B5" s="8">
         <v>13</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>14</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <v>15</v>
       </c>
     </row>
@@ -820,7 +1200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -830,13 +1210,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="20" t="s">
         <v>1</v>
       </c>
     </row>
@@ -844,45 +1224,45 @@
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1">
       <c r="A3" s="18"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1">
       <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A5" s="21"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="22" t="s">
         <v>12</v>
       </c>
@@ -891,7 +1271,7 @@
       <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -906,12 +1286,136 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="17" style="24" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A3" s="38"/>
+      <c r="B3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A4" s="39"/>
+      <c r="B4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A6" s="38"/>
+      <c r="B6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A7" s="39"/>
+      <c r="B7" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Desafios/desafio13/d13.xlsx
+++ b/Desafios/desafio13/d13.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="14355" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="14355" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="desafio-13-01" sheetId="1" r:id="rId1"/>
     <sheet name="desafio-13-02" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="Ex" sheetId="3" r:id="rId3"/>
+    <sheet name="desafio-p2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>A</t>
   </si>
@@ -142,13 +143,64 @@
   </si>
   <si>
     <t>Gladiador</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t>Disciplina</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Nota 1</t>
+  </si>
+  <si>
+    <t>Nota 2</t>
+  </si>
+  <si>
+    <t>Exatas</t>
+  </si>
+  <si>
+    <t>Matemática</t>
+  </si>
+  <si>
+    <t>Fisica</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Humanas</t>
+  </si>
+  <si>
+    <t>Química</t>
+  </si>
+  <si>
+    <t>História</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Média de Exatas</t>
+  </si>
+  <si>
+    <t>Média de Humanas</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,16 +216,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -690,11 +756,438 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -729,42 +1222,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -795,6 +1252,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -813,10 +1312,106 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1131,7 +1726,7 @@
       <c r="B1" s="3">
         <v>2</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="24">
         <v>3</v>
       </c>
       <c r="D1" s="4">
@@ -1145,35 +1740,35 @@
       <c r="B2" s="6">
         <v>6</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A3" s="14">
+      <c r="A3" s="26">
         <v>8</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A4" s="14">
+      <c r="A4" s="26">
         <v>10</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="25">
         <v>11</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A5" s="15"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="8">
         <v>13</v>
       </c>
@@ -1210,18 +1805,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="20" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1233,10 +1828,10 @@
       <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A3" s="18"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
@@ -1246,10 +1841,10 @@
       <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A4" s="18"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1259,16 +1854,16 @@
       <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1">
       <c r="A6" s="10"/>
@@ -1288,124 +1883,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="17" style="24" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12" style="24" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="11.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="17" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="12" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="31" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="21" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1418,4 +2013,178 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="53" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="12" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A1" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="67"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A3" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A4" s="55"/>
+      <c r="B4" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A5" s="55"/>
+      <c r="B5" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A6" s="56"/>
+      <c r="B6" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A7" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A8" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A9" s="56"/>
+      <c r="B9" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A10" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>